--- a/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PR1_600" sheetId="1" r:id="rId1"/>
-    <sheet name="PR2_600_f2_2" sheetId="2" r:id="rId4"/>
-    <sheet name="PR3_600_f2_3" sheetId="3" r:id="rId5"/>
-    <sheet name="PR4_600_f2_4" sheetId="4" r:id="rId6"/>
-    <sheet name="PRO" sheetId="5" r:id="rId7"/>
-    <sheet name="PRO_f2_2" sheetId="6" r:id="rId8"/>
-    <sheet name="PRO_f2_3" sheetId="7" r:id="rId9"/>
-    <sheet name="PRO_f2_4" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_1 PR1_600  0-1-200-320" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 PRO  0-1-200-320 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_2 PR2_600_f2_2  0-1-14" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_2 PRO_f2_2  0-1-140-30" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_3 PR3_600_f2_3  0-1-17" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_3 PRO_f2_3  0-1-170-31" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_4 PR4_600_f2_4  0-1-20" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_4 PRO_f2_4  0-1-200-30" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -30,22 +30,22 @@
     <t>Y</t>
   </si>
   <si>
+    <t>PRO</t>
+  </si>
+  <si>
     <t>PR2_600_f2_2</t>
+  </si>
+  <si>
+    <t>PRO_f2_2</t>
   </si>
   <si>
     <t>PR3_600_f2_3</t>
   </si>
   <si>
-    <t>PR4_600_f2_4</t>
+    <t>PRO_f2_3</t>
   </si>
   <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>PRO_f2_2</t>
-  </si>
-  <si>
-    <t>PRO_f2_3</t>
+    <t>PR4_600_f2_4</t>
   </si>
   <si>
     <t>PRO_f2_4</t>
@@ -125,7 +125,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PR1_600</a:t>
+              <a:t>Izoterma adsorpcji probki PR1_600 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -184,12 +184,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PR1_600!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 PR1_600  0-1-200-320'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PR1_600!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 PR1_600  0-1-200-320'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -202,6 +202,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -271,6 +273,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -435,7 +439,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PR2_600_f2_2</a:t>
+              <a:t>Izoterma adsorpcji probki PRO z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -494,12 +498,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PR2_600_f2_2!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 PRO  0-1-200-320 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PR2_600_f2_2!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 PRO  0-1-200-320 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -512,6 +516,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -581,6 +587,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -745,7 +753,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PR3_600_f2_3</a:t>
+              <a:t>Izoterma adsorpcji probki PR2_600_f2_2 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -804,12 +812,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PR3_600_f2_3!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 PR2_600_f2_2  0-1-14'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PR3_600_f2_3!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 PR2_600_f2_2  0-1-14'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -822,6 +830,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -891,6 +901,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1055,7 +1067,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PR4_600_f2_4</a:t>
+              <a:t>Izoterma adsorpcji probki PRO_f2_2 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1114,12 +1126,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PR4_600_f2_4!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 PRO_f2_2  0-1-140-30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PR4_600_f2_4!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 PRO_f2_2  0-1-140-30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1132,6 +1144,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1201,6 +1215,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1365,7 +1381,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PRO</a:t>
+              <a:t>Izoterma adsorpcji probki PR3_600_f2_3 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1424,12 +1440,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PRO!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 PR3_600_f2_3  0-1-17'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PRO!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 PR3_600_f2_3  0-1-17'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1442,6 +1458,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1511,6 +1529,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="170"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1675,7 +1695,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PRO_f2_2</a:t>
+              <a:t>Izoterma adsorpcji probki PRO_f2_3 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1734,12 +1754,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PRO_f2_2!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 PRO_f2_3  0-1-170-31'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PRO_f2_2!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 PRO_f2_3  0-1-170-31'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1752,6 +1772,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1821,6 +1843,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="170"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1985,7 +2009,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PRO_f2_3</a:t>
+              <a:t>Izoterma adsorpcji probki PR4_600_f2_4 z wykresu 'Figure 2_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2044,12 +2068,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PRO_f2_3!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_4 PR4_600_f2_4  0-1-20'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PRO_f2_3!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_4 PR4_600_f2_4  0-1-20'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2062,6 +2086,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2131,6 +2157,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2295,7 +2323,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PRO_f2_4</a:t>
+              <a:t>Izoterma adsorpcji probki PRO_f2_4 z wykresu 'Figure 2_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2354,12 +2382,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PRO_f2_4!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_4 PRO_f2_4  0-1-200-30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PRO_f2_4!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_4 PRO_f2_4  0-1-200-30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2372,6 +2400,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2441,6 +2471,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8001,6 +8033,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0175</v>
+      </c>
+      <c r="B3" s="0">
+        <v>253.4844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0122</v>
+      </c>
+      <c r="B4" s="0">
+        <v>246.0952</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0314</v>
+      </c>
+      <c r="B5" s="0">
+        <v>260.7701</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0562</v>
+      </c>
+      <c r="B6" s="0">
+        <v>266.2082</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0899</v>
+      </c>
+      <c r="B7" s="0">
+        <v>271.8222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1262</v>
+      </c>
+      <c r="B8" s="0">
+        <v>274.4407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1625</v>
+      </c>
+      <c r="B9" s="0">
+        <v>276.1193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1988</v>
+      </c>
+      <c r="B10" s="0">
+        <v>277.7766</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2351</v>
+      </c>
+      <c r="B11" s="0">
+        <v>278.8232</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2713</v>
+      </c>
+      <c r="B12" s="0">
+        <v>279.8107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3076</v>
+      </c>
+      <c r="B13" s="0">
+        <v>280.5553</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3439</v>
+      </c>
+      <c r="B14" s="0">
+        <v>281.3413</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3802</v>
+      </c>
+      <c r="B15" s="0">
+        <v>282.0221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.4164</v>
+      </c>
+      <c r="B16" s="0">
+        <v>282.6989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4527</v>
+      </c>
+      <c r="B17" s="0">
+        <v>283.2249</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.489</v>
+      </c>
+      <c r="B18" s="0">
+        <v>284.0613</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5252</v>
+      </c>
+      <c r="B19" s="0">
+        <v>284.582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5615</v>
+      </c>
+      <c r="B20" s="0">
+        <v>284.8802</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5978</v>
+      </c>
+      <c r="B21" s="0">
+        <v>285.2666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.634</v>
+      </c>
+      <c r="B22" s="0">
+        <v>285.9013</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.6703</v>
+      </c>
+      <c r="B23" s="0">
+        <v>286.2884</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7065</v>
+      </c>
+      <c r="B24" s="0">
+        <v>286.5623</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.7428</v>
+      </c>
+      <c r="B25" s="0">
+        <v>286.8218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.7791</v>
+      </c>
+      <c r="B26" s="0">
+        <v>287.1345</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8153</v>
+      </c>
+      <c r="B27" s="0">
+        <v>287.4684</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8516</v>
+      </c>
+      <c r="B28" s="0">
+        <v>287.5503</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.8878</v>
+      </c>
+      <c r="B29" s="0">
+        <v>287.5352</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9241</v>
+      </c>
+      <c r="B30" s="0">
+        <v>287.7866</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.991</v>
+      </c>
+      <c r="B31" s="0">
+        <v>288.8175</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0399</v>
+      </c>
+      <c r="B32" s="0">
+        <v>263.6882</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0205</v>
+      </c>
+      <c r="B33" s="0">
+        <v>256.8516</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0139</v>
+      </c>
+      <c r="B34" s="0">
+        <v>249.1154</v>
+      </c>
+    </row>
+    <row r="35"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8009,7 +8325,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -8371,7 +8687,379 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0107</v>
+      </c>
+      <c r="B3" s="0">
+        <v>245.8459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0234</v>
+      </c>
+      <c r="B4" s="0">
+        <v>258.0807</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0182</v>
+      </c>
+      <c r="B5" s="0">
+        <v>252.1079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0457</v>
+      </c>
+      <c r="B6" s="0">
+        <v>263.5539</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0689</v>
+      </c>
+      <c r="B7" s="0">
+        <v>268.8605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.094</v>
+      </c>
+      <c r="B8" s="0">
+        <v>271.5397</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1182</v>
+      </c>
+      <c r="B9" s="0">
+        <v>273.7059</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1424</v>
+      </c>
+      <c r="B10" s="0">
+        <v>275.0022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1657</v>
+      </c>
+      <c r="B11" s="0">
+        <v>275.691</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1907</v>
+      </c>
+      <c r="B12" s="0">
+        <v>277.0962</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2149</v>
+      </c>
+      <c r="B13" s="0">
+        <v>277.9375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2387</v>
+      </c>
+      <c r="B14" s="0">
+        <v>278.4058</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2632</v>
+      </c>
+      <c r="B15" s="0">
+        <v>279.2328</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2874</v>
+      </c>
+      <c r="B16" s="0">
+        <v>279.7837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3116</v>
+      </c>
+      <c r="B17" s="0">
+        <v>280.2135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3358</v>
+      </c>
+      <c r="B18" s="0">
+        <v>280.716</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3599</v>
+      </c>
+      <c r="B19" s="0">
+        <v>281.2087</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3841</v>
+      </c>
+      <c r="B20" s="0">
+        <v>281.6725</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4083</v>
+      </c>
+      <c r="B21" s="0">
+        <v>282.141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4325</v>
+      </c>
+      <c r="B22" s="0">
+        <v>282.3046</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4566</v>
+      </c>
+      <c r="B23" s="0">
+        <v>282.4683</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4808</v>
+      </c>
+      <c r="B24" s="0">
+        <v>283.0853</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.505</v>
+      </c>
+      <c r="B25" s="0">
+        <v>283.3618</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.5292</v>
+      </c>
+      <c r="B26" s="0">
+        <v>283.6707</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5533</v>
+      </c>
+      <c r="B27" s="0">
+        <v>283.681</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5775</v>
+      </c>
+      <c r="B28" s="0">
+        <v>284.4324</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6017</v>
+      </c>
+      <c r="B29" s="0">
+        <v>284.6278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6259</v>
+      </c>
+      <c r="B30" s="0">
+        <v>284.9893</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.65</v>
+      </c>
+      <c r="B31" s="0">
+        <v>285.0002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6742</v>
+      </c>
+      <c r="B32" s="0">
+        <v>285.2171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6984</v>
+      </c>
+      <c r="B33" s="0">
+        <v>285.2758</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7226</v>
+      </c>
+      <c r="B34" s="0">
+        <v>285.241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7467</v>
+      </c>
+      <c r="B35" s="0">
+        <v>285.8757</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7709</v>
+      </c>
+      <c r="B36" s="0">
+        <v>286.1525</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7951</v>
+      </c>
+      <c r="B37" s="0">
+        <v>286.274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.8193</v>
+      </c>
+      <c r="B38" s="0">
+        <v>286.5489</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.8434</v>
+      </c>
+      <c r="B39" s="0">
+        <v>287.0538</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8676</v>
+      </c>
+      <c r="B40" s="0">
+        <v>286.8844</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8918</v>
+      </c>
+      <c r="B41" s="0">
+        <v>286.8292</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.916</v>
+      </c>
+      <c r="B42" s="0">
+        <v>287.1066</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9401</v>
+      </c>
+      <c r="B43" s="0">
+        <v>287.2137</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9643</v>
+      </c>
+      <c r="B44" s="0">
+        <v>288.4648</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.9885</v>
+      </c>
+      <c r="B45" s="0">
+        <v>288.1105</v>
+      </c>
+    </row>
+    <row r="46"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -8381,7 +9069,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -8831,7 +9519,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0145</v>
+      </c>
+      <c r="B3" s="0">
+        <v>249.3614</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0116</v>
+      </c>
+      <c r="B4" s="0">
+        <v>244.4369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0224</v>
+      </c>
+      <c r="B5" s="0">
+        <v>254.7202</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0295</v>
+      </c>
+      <c r="B6" s="0">
+        <v>259.1442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0418</v>
+      </c>
+      <c r="B7" s="0">
+        <v>263.4844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0569</v>
+      </c>
+      <c r="B8" s="0">
+        <v>267.1269</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0803</v>
+      </c>
+      <c r="B9" s="0">
+        <v>270.8527</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1064</v>
+      </c>
+      <c r="B10" s="0">
+        <v>273.0469</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1322</v>
+      </c>
+      <c r="B11" s="0">
+        <v>274.6323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1581</v>
+      </c>
+      <c r="B12" s="0">
+        <v>275.79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1826</v>
+      </c>
+      <c r="B13" s="0">
+        <v>277.0142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2079</v>
+      </c>
+      <c r="B14" s="0">
+        <v>277.9863</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2338</v>
+      </c>
+      <c r="B15" s="0">
+        <v>278.5199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2587</v>
+      </c>
+      <c r="B16" s="0">
+        <v>279.4653</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.284</v>
+      </c>
+      <c r="B17" s="0">
+        <v>280.1294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3094</v>
+      </c>
+      <c r="B18" s="0">
+        <v>280.7936</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3348</v>
+      </c>
+      <c r="B19" s="0">
+        <v>281.3037</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3603</v>
+      </c>
+      <c r="B20" s="0">
+        <v>281.3856</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3857</v>
+      </c>
+      <c r="B21" s="0">
+        <v>281.9283</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4109</v>
+      </c>
+      <c r="B22" s="0">
+        <v>282.6997</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4362</v>
+      </c>
+      <c r="B23" s="0">
+        <v>282.9182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4616</v>
+      </c>
+      <c r="B24" s="0">
+        <v>283.6119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.487</v>
+      </c>
+      <c r="B25" s="0">
+        <v>283.9396</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.5123</v>
+      </c>
+      <c r="B26" s="0">
+        <v>284.1799</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5377</v>
+      </c>
+      <c r="B27" s="0">
+        <v>284.2313</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5631</v>
+      </c>
+      <c r="B28" s="0">
+        <v>284.6265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5884</v>
+      </c>
+      <c r="B29" s="0">
+        <v>285.2692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6138</v>
+      </c>
+      <c r="B30" s="0">
+        <v>285.6637</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6392</v>
+      </c>
+      <c r="B31" s="0">
+        <v>285.7956</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6645</v>
+      </c>
+      <c r="B32" s="0">
+        <v>286.3556</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6899</v>
+      </c>
+      <c r="B33" s="0">
+        <v>286.822</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7153</v>
+      </c>
+      <c r="B34" s="0">
+        <v>286.9017</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7428</v>
+      </c>
+      <c r="B35" s="0">
+        <v>286.6804</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7639</v>
+      </c>
+      <c r="B36" s="0">
+        <v>286.6279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7914</v>
+      </c>
+      <c r="B37" s="0">
+        <v>287.237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.8167</v>
+      </c>
+      <c r="B38" s="0">
+        <v>287.2982</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.8674</v>
+      </c>
+      <c r="B39" s="0">
+        <v>287.4706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8928</v>
+      </c>
+      <c r="B40" s="0">
+        <v>287.8454</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9182</v>
+      </c>
+      <c r="B41" s="0">
+        <v>288.4709</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.992</v>
+      </c>
+      <c r="B42" s="0">
+        <v>288.8335</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9427</v>
+      </c>
+      <c r="B43" s="0">
+        <v>288.432</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -8841,7 +9885,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -9237,1018 +10281,6 @@
       </c>
     </row>
     <row r="51"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0175</v>
-      </c>
-      <c r="B3" s="0">
-        <v>253.4844</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0122</v>
-      </c>
-      <c r="B4" s="0">
-        <v>246.0952</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0314</v>
-      </c>
-      <c r="B5" s="0">
-        <v>260.7701</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0562</v>
-      </c>
-      <c r="B6" s="0">
-        <v>266.2082</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0899</v>
-      </c>
-      <c r="B7" s="0">
-        <v>271.8222</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1262</v>
-      </c>
-      <c r="B8" s="0">
-        <v>274.4407</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1625</v>
-      </c>
-      <c r="B9" s="0">
-        <v>276.1193</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1988</v>
-      </c>
-      <c r="B10" s="0">
-        <v>277.7766</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2351</v>
-      </c>
-      <c r="B11" s="0">
-        <v>278.8232</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2713</v>
-      </c>
-      <c r="B12" s="0">
-        <v>279.8107</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3076</v>
-      </c>
-      <c r="B13" s="0">
-        <v>280.5553</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3439</v>
-      </c>
-      <c r="B14" s="0">
-        <v>281.3413</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3802</v>
-      </c>
-      <c r="B15" s="0">
-        <v>282.0221</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.4164</v>
-      </c>
-      <c r="B16" s="0">
-        <v>282.6989</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4527</v>
-      </c>
-      <c r="B17" s="0">
-        <v>283.2249</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.489</v>
-      </c>
-      <c r="B18" s="0">
-        <v>284.0613</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5252</v>
-      </c>
-      <c r="B19" s="0">
-        <v>284.582</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5615</v>
-      </c>
-      <c r="B20" s="0">
-        <v>284.8802</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5978</v>
-      </c>
-      <c r="B21" s="0">
-        <v>285.2666</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.634</v>
-      </c>
-      <c r="B22" s="0">
-        <v>285.9013</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.6703</v>
-      </c>
-      <c r="B23" s="0">
-        <v>286.2884</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7065</v>
-      </c>
-      <c r="B24" s="0">
-        <v>286.5623</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.7428</v>
-      </c>
-      <c r="B25" s="0">
-        <v>286.8218</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7791</v>
-      </c>
-      <c r="B26" s="0">
-        <v>287.1345</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8153</v>
-      </c>
-      <c r="B27" s="0">
-        <v>287.4684</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8516</v>
-      </c>
-      <c r="B28" s="0">
-        <v>287.5503</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8878</v>
-      </c>
-      <c r="B29" s="0">
-        <v>287.5352</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9241</v>
-      </c>
-      <c r="B30" s="0">
-        <v>287.7866</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.991</v>
-      </c>
-      <c r="B31" s="0">
-        <v>288.8175</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0399</v>
-      </c>
-      <c r="B32" s="0">
-        <v>263.6882</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.0205</v>
-      </c>
-      <c r="B33" s="0">
-        <v>256.8516</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0139</v>
-      </c>
-      <c r="B34" s="0">
-        <v>249.1154</v>
-      </c>
-    </row>
-    <row r="35"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0107</v>
-      </c>
-      <c r="B3" s="0">
-        <v>245.8459</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0234</v>
-      </c>
-      <c r="B4" s="0">
-        <v>258.0807</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0182</v>
-      </c>
-      <c r="B5" s="0">
-        <v>252.1079</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0457</v>
-      </c>
-      <c r="B6" s="0">
-        <v>263.5539</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0689</v>
-      </c>
-      <c r="B7" s="0">
-        <v>268.8605</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.094</v>
-      </c>
-      <c r="B8" s="0">
-        <v>271.5397</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1182</v>
-      </c>
-      <c r="B9" s="0">
-        <v>273.7059</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1424</v>
-      </c>
-      <c r="B10" s="0">
-        <v>275.0022</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1657</v>
-      </c>
-      <c r="B11" s="0">
-        <v>275.691</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1907</v>
-      </c>
-      <c r="B12" s="0">
-        <v>277.0962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2149</v>
-      </c>
-      <c r="B13" s="0">
-        <v>277.9375</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2387</v>
-      </c>
-      <c r="B14" s="0">
-        <v>278.4058</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2632</v>
-      </c>
-      <c r="B15" s="0">
-        <v>279.2328</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2874</v>
-      </c>
-      <c r="B16" s="0">
-        <v>279.7837</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3116</v>
-      </c>
-      <c r="B17" s="0">
-        <v>280.2135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3358</v>
-      </c>
-      <c r="B18" s="0">
-        <v>280.716</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3599</v>
-      </c>
-      <c r="B19" s="0">
-        <v>281.2087</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3841</v>
-      </c>
-      <c r="B20" s="0">
-        <v>281.6725</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4083</v>
-      </c>
-      <c r="B21" s="0">
-        <v>282.141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4325</v>
-      </c>
-      <c r="B22" s="0">
-        <v>282.3046</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4566</v>
-      </c>
-      <c r="B23" s="0">
-        <v>282.4683</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4808</v>
-      </c>
-      <c r="B24" s="0">
-        <v>283.0853</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.505</v>
-      </c>
-      <c r="B25" s="0">
-        <v>283.3618</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5292</v>
-      </c>
-      <c r="B26" s="0">
-        <v>283.6707</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5533</v>
-      </c>
-      <c r="B27" s="0">
-        <v>283.681</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5775</v>
-      </c>
-      <c r="B28" s="0">
-        <v>284.4324</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6017</v>
-      </c>
-      <c r="B29" s="0">
-        <v>284.6278</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6259</v>
-      </c>
-      <c r="B30" s="0">
-        <v>284.9893</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.65</v>
-      </c>
-      <c r="B31" s="0">
-        <v>285.0002</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6742</v>
-      </c>
-      <c r="B32" s="0">
-        <v>285.2171</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6984</v>
-      </c>
-      <c r="B33" s="0">
-        <v>285.2758</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7226</v>
-      </c>
-      <c r="B34" s="0">
-        <v>285.241</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7467</v>
-      </c>
-      <c r="B35" s="0">
-        <v>285.8757</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7709</v>
-      </c>
-      <c r="B36" s="0">
-        <v>286.1525</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7951</v>
-      </c>
-      <c r="B37" s="0">
-        <v>286.274</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8193</v>
-      </c>
-      <c r="B38" s="0">
-        <v>286.5489</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8434</v>
-      </c>
-      <c r="B39" s="0">
-        <v>287.0538</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8676</v>
-      </c>
-      <c r="B40" s="0">
-        <v>286.8844</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8918</v>
-      </c>
-      <c r="B41" s="0">
-        <v>286.8292</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.916</v>
-      </c>
-      <c r="B42" s="0">
-        <v>287.1066</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9401</v>
-      </c>
-      <c r="B43" s="0">
-        <v>287.2137</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9643</v>
-      </c>
-      <c r="B44" s="0">
-        <v>288.4648</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B45" s="0">
-        <v>288.1105</v>
-      </c>
-    </row>
-    <row r="46"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0145</v>
-      </c>
-      <c r="B3" s="0">
-        <v>249.3614</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0116</v>
-      </c>
-      <c r="B4" s="0">
-        <v>244.4369</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0224</v>
-      </c>
-      <c r="B5" s="0">
-        <v>254.7202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0295</v>
-      </c>
-      <c r="B6" s="0">
-        <v>259.1442</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0418</v>
-      </c>
-      <c r="B7" s="0">
-        <v>263.4844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0569</v>
-      </c>
-      <c r="B8" s="0">
-        <v>267.1269</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0803</v>
-      </c>
-      <c r="B9" s="0">
-        <v>270.8527</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1064</v>
-      </c>
-      <c r="B10" s="0">
-        <v>273.0469</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1322</v>
-      </c>
-      <c r="B11" s="0">
-        <v>274.6323</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1581</v>
-      </c>
-      <c r="B12" s="0">
-        <v>275.79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.1826</v>
-      </c>
-      <c r="B13" s="0">
-        <v>277.0142</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2079</v>
-      </c>
-      <c r="B14" s="0">
-        <v>277.9863</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2338</v>
-      </c>
-      <c r="B15" s="0">
-        <v>278.5199</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2587</v>
-      </c>
-      <c r="B16" s="0">
-        <v>279.4653</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.284</v>
-      </c>
-      <c r="B17" s="0">
-        <v>280.1294</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3094</v>
-      </c>
-      <c r="B18" s="0">
-        <v>280.7936</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3348</v>
-      </c>
-      <c r="B19" s="0">
-        <v>281.3037</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3603</v>
-      </c>
-      <c r="B20" s="0">
-        <v>281.3856</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3857</v>
-      </c>
-      <c r="B21" s="0">
-        <v>281.9283</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4109</v>
-      </c>
-      <c r="B22" s="0">
-        <v>282.6997</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4362</v>
-      </c>
-      <c r="B23" s="0">
-        <v>282.9182</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4616</v>
-      </c>
-      <c r="B24" s="0">
-        <v>283.6119</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.487</v>
-      </c>
-      <c r="B25" s="0">
-        <v>283.9396</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5123</v>
-      </c>
-      <c r="B26" s="0">
-        <v>284.1799</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5377</v>
-      </c>
-      <c r="B27" s="0">
-        <v>284.2313</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5631</v>
-      </c>
-      <c r="B28" s="0">
-        <v>284.6265</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5884</v>
-      </c>
-      <c r="B29" s="0">
-        <v>285.2692</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6138</v>
-      </c>
-      <c r="B30" s="0">
-        <v>285.6637</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6392</v>
-      </c>
-      <c r="B31" s="0">
-        <v>285.7956</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6645</v>
-      </c>
-      <c r="B32" s="0">
-        <v>286.3556</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6899</v>
-      </c>
-      <c r="B33" s="0">
-        <v>286.822</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7153</v>
-      </c>
-      <c r="B34" s="0">
-        <v>286.9017</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7428</v>
-      </c>
-      <c r="B35" s="0">
-        <v>286.6804</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7639</v>
-      </c>
-      <c r="B36" s="0">
-        <v>286.6279</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7914</v>
-      </c>
-      <c r="B37" s="0">
-        <v>287.237</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8167</v>
-      </c>
-      <c r="B38" s="0">
-        <v>287.2982</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8674</v>
-      </c>
-      <c r="B39" s="0">
-        <v>287.4706</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8928</v>
-      </c>
-      <c r="B40" s="0">
-        <v>287.8454</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9182</v>
-      </c>
-      <c r="B41" s="0">
-        <v>288.4709</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.992</v>
-      </c>
-      <c r="B42" s="0">
-        <v>288.8335</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9427</v>
-      </c>
-      <c r="B43" s="0">
-        <v>288.432</v>
-      </c>
-    </row>
-    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
@@ -7669,7 +7669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7690,341 +7690,381 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0109</v>
+        <v>0.9889</v>
       </c>
       <c r="B3" s="0">
-        <v>211.1593</v>
+        <v>251.2744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0183</v>
+        <v>0.9407</v>
       </c>
       <c r="B4" s="0">
-        <v>217.3423</v>
+        <v>250.1049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0269</v>
+        <v>0.917</v>
       </c>
       <c r="B5" s="0">
-        <v>222.5168</v>
+        <v>250.1949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0359</v>
+        <v>0.8919</v>
       </c>
       <c r="B6" s="0">
-        <v>226.5488</v>
+        <v>249.6552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0528</v>
+        <v>0.8656</v>
       </c>
       <c r="B7" s="0">
-        <v>230.0164</v>
+        <v>249.6552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0766</v>
+        <v>0.8419</v>
       </c>
       <c r="B8" s="0">
-        <v>233.7916</v>
+        <v>249.4753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0979</v>
+        <v>0.8156</v>
       </c>
       <c r="B9" s="0">
-        <v>235.8711</v>
+        <v>249.1154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1239</v>
+        <v>0.7899</v>
       </c>
       <c r="B10" s="0">
-        <v>237.6505</v>
+        <v>249.1154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1508</v>
+        <v>0.7655</v>
       </c>
       <c r="B11" s="0">
-        <v>238.9248</v>
+        <v>248.8456</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1731</v>
+        <v>0.7405</v>
       </c>
       <c r="B12" s="0">
-        <v>239.5877</v>
+        <v>248.8456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1976</v>
+        <v>0.7141</v>
       </c>
       <c r="B13" s="0">
-        <v>240.5615</v>
+        <v>248.5757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2233</v>
+        <v>0.6897</v>
       </c>
       <c r="B14" s="0">
-        <v>241.5275</v>
+        <v>248.2159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.249</v>
+        <v>0.6647</v>
       </c>
       <c r="B15" s="0">
-        <v>242.2216</v>
+        <v>248.036</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2749</v>
+        <v>0.6377</v>
       </c>
       <c r="B16" s="0">
-        <v>242.6654</v>
+        <v>247.6762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2978</v>
+        <v>0.6146</v>
       </c>
       <c r="B17" s="0">
-        <v>242.9221</v>
+        <v>247.4963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3219</v>
+        <v>0.5889</v>
       </c>
       <c r="B18" s="0">
-        <v>243.499</v>
+        <v>247.1364</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3488</v>
+        <v>0.5645</v>
       </c>
       <c r="B19" s="0">
-        <v>244.3146</v>
+        <v>246.8666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3737</v>
+        <v>0.5389</v>
       </c>
       <c r="B20" s="0">
-        <v>244.5311</v>
+        <v>246.5967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3986</v>
+        <v>0.5138</v>
       </c>
       <c r="B21" s="0">
-        <v>245.0075</v>
+        <v>246.3268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4236</v>
+        <v>0.4882</v>
       </c>
       <c r="B22" s="0">
-        <v>245.3106</v>
+        <v>246.1469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4485</v>
+        <v>0.4625</v>
       </c>
       <c r="B23" s="0">
-        <v>245.6426</v>
+        <v>245.7871</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4734</v>
+        <v>0.4387</v>
       </c>
       <c r="B24" s="0">
-        <v>246.1623</v>
+        <v>245.3373</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4993</v>
+        <v>0.4156</v>
       </c>
       <c r="B25" s="0">
-        <v>246.5159</v>
+        <v>244.9775</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5226</v>
+        <v>0.3874</v>
       </c>
       <c r="B26" s="0">
-        <v>246.4369</v>
+        <v>244.8876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5475</v>
+        <v>0.3617</v>
       </c>
       <c r="B27" s="0">
-        <v>246.7613</v>
+        <v>244.2579</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.571</v>
+        <v>0.3366</v>
       </c>
       <c r="B28" s="0">
-        <v>246.9576</v>
+        <v>243.8981</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5967</v>
+        <v>0.3135</v>
       </c>
       <c r="B29" s="0">
-        <v>247.2515</v>
+        <v>243.5382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6213</v>
+        <v>0.2885</v>
       </c>
       <c r="B30" s="0">
-        <v>247.5527</v>
+        <v>243.0885</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6479</v>
+        <v>0.2615</v>
       </c>
       <c r="B31" s="0">
-        <v>248.2072</v>
+        <v>242.1889</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6729</v>
+        <v>0.2332</v>
       </c>
       <c r="B32" s="0">
-        <v>248.2121</v>
+        <v>241.5592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6978</v>
+        <v>0.2114</v>
       </c>
       <c r="B33" s="0">
-        <v>248.3708</v>
+        <v>241.1094</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7227</v>
+        <v>0.1883</v>
       </c>
       <c r="B34" s="0">
-        <v>248.7028</v>
+        <v>240.2999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7477</v>
+        <v>0.1619</v>
       </c>
       <c r="B35" s="0">
-        <v>248.9771</v>
+        <v>239.3103</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7726</v>
+        <v>0.1369</v>
       </c>
       <c r="B36" s="0">
-        <v>248.9807</v>
+        <v>238.5007</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7975</v>
+        <v>0.1118</v>
       </c>
       <c r="B37" s="0">
-        <v>249.47</v>
+        <v>236.6117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8216</v>
+        <v>0.0842</v>
       </c>
       <c r="B38" s="0">
-        <v>249.4095</v>
+        <v>234.8126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8474</v>
+        <v>0.0604</v>
       </c>
       <c r="B39" s="0">
-        <v>249.8432</v>
+        <v>231.7541</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8723</v>
+        <v>0.052</v>
       </c>
       <c r="B40" s="0">
-        <v>249.9587</v>
+        <v>230.3148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8972</v>
+        <v>0.0436</v>
       </c>
       <c r="B41" s="0">
-        <v>250.0199</v>
+        <v>228.6057</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9218</v>
+        <v>0.0359</v>
       </c>
       <c r="B42" s="0">
-        <v>250.1878</v>
+        <v>226.7166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9456</v>
+        <v>0.0301</v>
       </c>
       <c r="B43" s="0">
-        <v>250.3835</v>
+        <v>224.7376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9936</v>
+        <v>0.0268</v>
       </c>
       <c r="B44" s="0">
-        <v>251.2199</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>222.7586</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0216</v>
+      </c>
+      <c r="B45" s="0">
+        <v>220.6897</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0197</v>
+      </c>
+      <c r="B46" s="0">
+        <v>218.6207</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0183</v>
+      </c>
+      <c r="B47" s="0">
+        <v>216.6417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0131</v>
+      </c>
+      <c r="B48" s="0">
+        <v>213.4033</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0105</v>
+      </c>
+      <c r="B49" s="0">
+        <v>209.985</v>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8033,7 +8073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8054,261 +8094,381 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0175</v>
+        <v>0.9891</v>
       </c>
       <c r="B3" s="0">
-        <v>253.4844</v>
+        <v>289.2354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0122</v>
+        <v>0.9415</v>
       </c>
       <c r="B4" s="0">
-        <v>246.0952</v>
+        <v>287.976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0314</v>
+        <v>0.9172</v>
       </c>
       <c r="B5" s="0">
-        <v>260.7701</v>
+        <v>287.7061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0562</v>
+        <v>0.8921</v>
       </c>
       <c r="B6" s="0">
-        <v>266.2082</v>
+        <v>287.3463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0899</v>
+        <v>0.8645</v>
       </c>
       <c r="B7" s="0">
-        <v>271.8222</v>
+        <v>287.0765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1262</v>
+        <v>0.8151</v>
       </c>
       <c r="B8" s="0">
-        <v>274.4407</v>
+        <v>286.8066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1625</v>
+        <v>0.7907</v>
       </c>
       <c r="B9" s="0">
-        <v>276.1193</v>
+        <v>286.8066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1988</v>
+        <v>0.7657</v>
       </c>
       <c r="B10" s="0">
-        <v>277.7766</v>
+        <v>286.5367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2351</v>
+        <v>0.7406</v>
       </c>
       <c r="B11" s="0">
-        <v>278.8232</v>
+        <v>286.1769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2713</v>
+        <v>0.7149</v>
       </c>
       <c r="B12" s="0">
-        <v>279.8107</v>
+        <v>286.1769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3076</v>
+        <v>0.6899</v>
       </c>
       <c r="B13" s="0">
-        <v>280.5553</v>
+        <v>285.997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3439</v>
+        <v>0.6649</v>
       </c>
       <c r="B14" s="0">
-        <v>281.3413</v>
+        <v>285.7271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3802</v>
+        <v>0.6392</v>
       </c>
       <c r="B15" s="0">
-        <v>282.0221</v>
+        <v>285.5472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4164</v>
+        <v>0.6141</v>
       </c>
       <c r="B16" s="0">
-        <v>282.6989</v>
+        <v>285.1874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4527</v>
+        <v>0.5898</v>
       </c>
       <c r="B17" s="0">
-        <v>283.2249</v>
+        <v>284.9175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.489</v>
+        <v>0.5654</v>
       </c>
       <c r="B18" s="0">
-        <v>284.0613</v>
+        <v>284.6477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5252</v>
+        <v>0.5384</v>
       </c>
       <c r="B19" s="0">
-        <v>284.582</v>
+        <v>284.018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5615</v>
+        <v>0.5133</v>
       </c>
       <c r="B20" s="0">
-        <v>284.8802</v>
+        <v>283.6582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5978</v>
+        <v>0.4909</v>
       </c>
       <c r="B21" s="0">
-        <v>285.2666</v>
+        <v>283.6582</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.634</v>
+        <v>0.4703</v>
       </c>
       <c r="B22" s="0">
-        <v>285.9013</v>
+        <v>283.4783</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6703</v>
+        <v>0.0093</v>
       </c>
       <c r="B23" s="0">
-        <v>286.2884</v>
+        <v>244.7976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7065</v>
+        <v>0.0132</v>
       </c>
       <c r="B24" s="0">
-        <v>286.5623</v>
+        <v>248.3958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7428</v>
+        <v>0.0152</v>
       </c>
       <c r="B25" s="0">
-        <v>286.8218</v>
+        <v>251.8141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7791</v>
+        <v>0.0185</v>
       </c>
       <c r="B26" s="0">
-        <v>287.1345</v>
+        <v>254.4228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8153</v>
+        <v>0.0224</v>
       </c>
       <c r="B27" s="0">
-        <v>287.4684</v>
+        <v>256.5817</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8516</v>
+        <v>0.0244</v>
       </c>
       <c r="B28" s="0">
-        <v>287.5503</v>
+        <v>258.2009</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8878</v>
+        <v>0.0276</v>
       </c>
       <c r="B29" s="0">
-        <v>287.5352</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9241</v>
+        <v>0.0334</v>
       </c>
       <c r="B30" s="0">
-        <v>287.7866</v>
+        <v>262.069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.991</v>
+        <v>0.0386</v>
       </c>
       <c r="B31" s="0">
-        <v>288.8175</v>
+        <v>263.5082</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0399</v>
+        <v>0.0438</v>
       </c>
       <c r="B32" s="0">
-        <v>263.6882</v>
+        <v>264.9475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0205</v>
+        <v>0.0508</v>
       </c>
       <c r="B33" s="0">
-        <v>256.8516</v>
+        <v>266.5667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0139</v>
+        <v>0.0586</v>
       </c>
       <c r="B34" s="0">
-        <v>249.1154</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>267.916</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.085</v>
+      </c>
+      <c r="B35" s="0">
+        <v>271.6042</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1113</v>
+      </c>
+      <c r="B36" s="0">
+        <v>274.033</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1383</v>
+      </c>
+      <c r="B37" s="0">
+        <v>275.8321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.1634</v>
+      </c>
+      <c r="B38" s="0">
+        <v>276.7316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.1891</v>
+      </c>
+      <c r="B39" s="0">
+        <v>277.7211</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.2109</v>
+      </c>
+      <c r="B40" s="0">
+        <v>278.4408</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.2366</v>
+      </c>
+      <c r="B41" s="0">
+        <v>279.3403</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.2623</v>
+      </c>
+      <c r="B42" s="0">
+        <v>279.97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.2873</v>
+      </c>
+      <c r="B43" s="0">
+        <v>280.5997</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.3137</v>
+      </c>
+      <c r="B44" s="0">
+        <v>281.3193</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.3368</v>
+      </c>
+      <c r="B45" s="0">
+        <v>281.6792</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.3618</v>
+      </c>
+      <c r="B46" s="0">
+        <v>282.2189</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.3894</v>
+      </c>
+      <c r="B47" s="0">
+        <v>282.5787</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.4138</v>
+      </c>
+      <c r="B48" s="0">
+        <v>283.1184</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.4389</v>
+      </c>
+      <c r="B49" s="0">
+        <v>283.2984</v>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8316,1210 +8476,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0116</v>
-      </c>
-      <c r="B3" s="0">
-        <v>160.5313</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0215</v>
-      </c>
-      <c r="B4" s="0">
-        <v>168.4201</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0361</v>
-      </c>
-      <c r="B5" s="0">
-        <v>173.9831</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0555</v>
-      </c>
-      <c r="B6" s="0">
-        <v>178.1598</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0824</v>
-      </c>
-      <c r="B7" s="0">
-        <v>182.7984</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.105</v>
-      </c>
-      <c r="B8" s="0">
-        <v>185.1238</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1292</v>
-      </c>
-      <c r="B9" s="0">
-        <v>186.8606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1552</v>
-      </c>
-      <c r="B10" s="0">
-        <v>187.0756</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1794</v>
-      </c>
-      <c r="B11" s="0">
-        <v>188.0777</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2017</v>
-      </c>
-      <c r="B12" s="0">
-        <v>189.1182</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.225</v>
-      </c>
-      <c r="B13" s="0">
-        <v>189.5564</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2508</v>
-      </c>
-      <c r="B14" s="0">
-        <v>190.127</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2751</v>
-      </c>
-      <c r="B15" s="0">
-        <v>190.6536</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2975</v>
-      </c>
-      <c r="B16" s="0">
-        <v>190.981</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3226</v>
-      </c>
-      <c r="B17" s="0">
-        <v>191.4369</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3468</v>
-      </c>
-      <c r="B18" s="0">
-        <v>191.9393</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3709</v>
-      </c>
-      <c r="B19" s="0">
-        <v>192.0182</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3951</v>
-      </c>
-      <c r="B20" s="0">
-        <v>192.2181</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4193</v>
-      </c>
-      <c r="B21" s="0">
-        <v>192.6964</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4434</v>
-      </c>
-      <c r="B22" s="0">
-        <v>192.9326</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4671</v>
-      </c>
-      <c r="B23" s="0">
-        <v>193.1503</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4918</v>
-      </c>
-      <c r="B24" s="0">
-        <v>194.1069</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5151</v>
-      </c>
-      <c r="B25" s="0">
-        <v>193.5393</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5401</v>
-      </c>
-      <c r="B26" s="0">
-        <v>194.0953</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5639</v>
-      </c>
-      <c r="B27" s="0">
-        <v>193.9635</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5881</v>
-      </c>
-      <c r="B28" s="0">
-        <v>194.184</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6127</v>
-      </c>
-      <c r="B29" s="0">
-        <v>194.2443</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6377</v>
-      </c>
-      <c r="B30" s="0">
-        <v>194.634</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6619</v>
-      </c>
-      <c r="B31" s="0">
-        <v>194.5246</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6856</v>
-      </c>
-      <c r="B32" s="0">
-        <v>195.4581</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7094</v>
-      </c>
-      <c r="B33" s="0">
-        <v>195.7247</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7344</v>
-      </c>
-      <c r="B34" s="0">
-        <v>195.3799</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7598</v>
-      </c>
-      <c r="B35" s="0">
-        <v>195.3405</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7819</v>
-      </c>
-      <c r="B36" s="0">
-        <v>196.4818</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8069</v>
-      </c>
-      <c r="B37" s="0">
-        <v>195.813</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8302</v>
-      </c>
-      <c r="B38" s="0">
-        <v>195.9115</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8544</v>
-      </c>
-      <c r="B39" s="0">
-        <v>196.5128</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8805</v>
-      </c>
-      <c r="B40" s="0">
-        <v>196.0674</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.902</v>
-      </c>
-      <c r="B41" s="0">
-        <v>196.4933</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9269</v>
-      </c>
-      <c r="B42" s="0">
-        <v>196.8826</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9511</v>
-      </c>
-      <c r="B43" s="0">
-        <v>197.2157</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9762</v>
-      </c>
-      <c r="B44" s="0">
-        <v>197.9841</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9951</v>
-      </c>
-      <c r="B45" s="0">
-        <v>198.7402</v>
-      </c>
-    </row>
-    <row r="46"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0107</v>
-      </c>
-      <c r="B3" s="0">
-        <v>245.8459</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0234</v>
-      </c>
-      <c r="B4" s="0">
-        <v>258.0807</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0182</v>
-      </c>
-      <c r="B5" s="0">
-        <v>252.1079</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0457</v>
-      </c>
-      <c r="B6" s="0">
-        <v>263.5539</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0689</v>
-      </c>
-      <c r="B7" s="0">
-        <v>268.8605</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.094</v>
-      </c>
-      <c r="B8" s="0">
-        <v>271.5397</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1182</v>
-      </c>
-      <c r="B9" s="0">
-        <v>273.7059</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1424</v>
-      </c>
-      <c r="B10" s="0">
-        <v>275.0022</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1657</v>
-      </c>
-      <c r="B11" s="0">
-        <v>275.691</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1907</v>
-      </c>
-      <c r="B12" s="0">
-        <v>277.0962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2149</v>
-      </c>
-      <c r="B13" s="0">
-        <v>277.9375</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2387</v>
-      </c>
-      <c r="B14" s="0">
-        <v>278.4058</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2632</v>
-      </c>
-      <c r="B15" s="0">
-        <v>279.2328</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2874</v>
-      </c>
-      <c r="B16" s="0">
-        <v>279.7837</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3116</v>
-      </c>
-      <c r="B17" s="0">
-        <v>280.2135</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3358</v>
-      </c>
-      <c r="B18" s="0">
-        <v>280.716</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3599</v>
-      </c>
-      <c r="B19" s="0">
-        <v>281.2087</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3841</v>
-      </c>
-      <c r="B20" s="0">
-        <v>281.6725</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4083</v>
-      </c>
-      <c r="B21" s="0">
-        <v>282.141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4325</v>
-      </c>
-      <c r="B22" s="0">
-        <v>282.3046</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4566</v>
-      </c>
-      <c r="B23" s="0">
-        <v>282.4683</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4808</v>
-      </c>
-      <c r="B24" s="0">
-        <v>283.0853</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.505</v>
-      </c>
-      <c r="B25" s="0">
-        <v>283.3618</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5292</v>
-      </c>
-      <c r="B26" s="0">
-        <v>283.6707</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5533</v>
-      </c>
-      <c r="B27" s="0">
-        <v>283.681</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5775</v>
-      </c>
-      <c r="B28" s="0">
-        <v>284.4324</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6017</v>
-      </c>
-      <c r="B29" s="0">
-        <v>284.6278</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6259</v>
-      </c>
-      <c r="B30" s="0">
-        <v>284.9893</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.65</v>
-      </c>
-      <c r="B31" s="0">
-        <v>285.0002</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6742</v>
-      </c>
-      <c r="B32" s="0">
-        <v>285.2171</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6984</v>
-      </c>
-      <c r="B33" s="0">
-        <v>285.2758</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7226</v>
-      </c>
-      <c r="B34" s="0">
-        <v>285.241</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7467</v>
-      </c>
-      <c r="B35" s="0">
-        <v>285.8757</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7709</v>
-      </c>
-      <c r="B36" s="0">
-        <v>286.1525</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7951</v>
-      </c>
-      <c r="B37" s="0">
-        <v>286.274</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8193</v>
-      </c>
-      <c r="B38" s="0">
-        <v>286.5489</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8434</v>
-      </c>
-      <c r="B39" s="0">
-        <v>287.0538</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8676</v>
-      </c>
-      <c r="B40" s="0">
-        <v>286.8844</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8918</v>
-      </c>
-      <c r="B41" s="0">
-        <v>286.8292</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.916</v>
-      </c>
-      <c r="B42" s="0">
-        <v>287.1066</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9401</v>
-      </c>
-      <c r="B43" s="0">
-        <v>287.2137</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9643</v>
-      </c>
-      <c r="B44" s="0">
-        <v>288.4648</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9885</v>
-      </c>
-      <c r="B45" s="0">
-        <v>288.1105</v>
-      </c>
-    </row>
-    <row r="46"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B3" s="0">
-        <v>187.778</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.04</v>
-      </c>
-      <c r="B4" s="0">
-        <v>195.0241</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.06</v>
-      </c>
-      <c r="B5" s="0">
-        <v>199.6701</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B6" s="0">
-        <v>202.3243</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="0">
-        <v>204.0302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B8" s="0">
-        <v>205.4037</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B9" s="0">
-        <v>206.6259</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B10" s="0">
-        <v>207.4368</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B11" s="0">
-        <v>208.1157</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>208.7006</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.22</v>
-      </c>
-      <c r="B13" s="0">
-        <v>209.1036</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B14" s="0">
-        <v>209.504</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B15" s="0">
-        <v>209.965</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.28</v>
-      </c>
-      <c r="B16" s="0">
-        <v>210.3461</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="0">
-        <v>210.7341</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B18" s="0">
-        <v>211.1226</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="B19" s="0">
-        <v>211.4886</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.36</v>
-      </c>
-      <c r="B20" s="0">
-        <v>211.7725</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.38</v>
-      </c>
-      <c r="B21" s="0">
-        <v>212.08</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="0">
-        <v>212.3206</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B23" s="0">
-        <v>212.608</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B24" s="0">
-        <v>212.9763</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B25" s="0">
-        <v>213.3928</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>213.8326</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B27" s="0">
-        <v>214.1792</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>214.5549</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>214.7691</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>214.8932</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>215.0367</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>215.134</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>215.4331</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>215.5237</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>215.4386</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>215.7248</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>215.9929</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>216.1946</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>216.3261</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>216.3387</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>216.6966</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>216.7505</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>216.5968</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>216.8222</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>216.8774</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>216.9017</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>217.2421</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>217.3439</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>217.4315</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>217.7442</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>217.7777</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.049</v>
-      </c>
-      <c r="B52" s="0">
-        <v>197.8797</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0309</v>
-      </c>
-      <c r="B53" s="0">
-        <v>192.4325</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0253</v>
-      </c>
-      <c r="B54" s="0">
-        <v>190.0363</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0155</v>
-      </c>
-      <c r="B55" s="0">
-        <v>184.5909</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0085</v>
-      </c>
-      <c r="B56" s="0">
-        <v>180.2348</v>
-      </c>
-    </row>
-    <row r="57"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -9529,7 +8485,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -9542,330 +8498,330 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0145</v>
+        <v>0.9913</v>
       </c>
       <c r="B3" s="0">
-        <v>249.3614</v>
+        <v>198.8886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0116</v>
+        <v>0.9393</v>
       </c>
       <c r="B4" s="0">
-        <v>244.4369</v>
+        <v>196.6772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0224</v>
+        <v>0.8898</v>
       </c>
       <c r="B5" s="0">
-        <v>254.7202</v>
+        <v>196.2444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0295</v>
+        <v>0.8635</v>
       </c>
       <c r="B6" s="0">
-        <v>259.1442</v>
+        <v>196.1024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0418</v>
+        <v>0.8353</v>
       </c>
       <c r="B7" s="0">
-        <v>263.4844</v>
+        <v>195.5162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0569</v>
+        <v>0.8084</v>
       </c>
       <c r="B8" s="0">
-        <v>267.1269</v>
+        <v>195.8191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0803</v>
+        <v>0.7655</v>
       </c>
       <c r="B9" s="0">
-        <v>270.8527</v>
+        <v>195.5329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1064</v>
+        <v>0.7405</v>
       </c>
       <c r="B10" s="0">
-        <v>273.0469</v>
+        <v>195.2424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1322</v>
+        <v>0.716</v>
       </c>
       <c r="B11" s="0">
-        <v>274.6323</v>
+        <v>195.2483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1581</v>
+        <v>0.6884</v>
       </c>
       <c r="B12" s="0">
-        <v>275.79</v>
+        <v>195.2549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1826</v>
+        <v>0.664</v>
       </c>
       <c r="B13" s="0">
-        <v>277.0142</v>
+        <v>194.816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2079</v>
+        <v>0.6395</v>
       </c>
       <c r="B14" s="0">
-        <v>277.9863</v>
+        <v>194.6736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2338</v>
+        <v>0.6144</v>
       </c>
       <c r="B15" s="0">
-        <v>278.5199</v>
+        <v>193.9384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2587</v>
+        <v>0.5887</v>
       </c>
       <c r="B16" s="0">
-        <v>279.4653</v>
+        <v>193.9446</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.284</v>
+        <v>0.563</v>
       </c>
       <c r="B17" s="0">
-        <v>280.1294</v>
+        <v>193.9507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3094</v>
+        <v>0.5391</v>
       </c>
       <c r="B18" s="0">
-        <v>280.7936</v>
+        <v>193.9565</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3348</v>
+        <v>0.5141</v>
       </c>
       <c r="B19" s="0">
-        <v>281.3037</v>
+        <v>193.3695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3603</v>
+        <v>0.4871</v>
       </c>
       <c r="B20" s="0">
-        <v>281.3856</v>
+        <v>193.3759</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3857</v>
+        <v>0.4633</v>
       </c>
       <c r="B21" s="0">
-        <v>281.9283</v>
+        <v>193.0851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4109</v>
+        <v>0.4382</v>
       </c>
       <c r="B22" s="0">
-        <v>282.6997</v>
+        <v>192.6464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4362</v>
+        <v>0.3886</v>
       </c>
       <c r="B23" s="0">
-        <v>282.9182</v>
+        <v>192.2135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4616</v>
+        <v>0.3617</v>
       </c>
       <c r="B24" s="0">
-        <v>283.6119</v>
+        <v>191.4787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.487</v>
+        <v>0.3366</v>
       </c>
       <c r="B25" s="0">
-        <v>283.9396</v>
+        <v>191.7813</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5123</v>
+        <v>0.3121</v>
       </c>
       <c r="B26" s="0">
-        <v>284.1799</v>
+        <v>191.3424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5377</v>
+        <v>0.287</v>
       </c>
       <c r="B27" s="0">
-        <v>284.2313</v>
+        <v>191.0519</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5631</v>
+        <v>0.2607</v>
       </c>
       <c r="B28" s="0">
-        <v>284.6265</v>
+        <v>190.4652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5884</v>
+        <v>0.235</v>
       </c>
       <c r="B29" s="0">
-        <v>285.2692</v>
+        <v>189.5818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6138</v>
+        <v>0.2112</v>
       </c>
       <c r="B30" s="0">
-        <v>285.6637</v>
+        <v>188.9946</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6392</v>
+        <v>0.1867</v>
       </c>
       <c r="B31" s="0">
-        <v>285.7956</v>
+        <v>188.7039</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6645</v>
+        <v>0.1616</v>
       </c>
       <c r="B32" s="0">
-        <v>286.3556</v>
+        <v>187.8204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6899</v>
+        <v>0.1365</v>
       </c>
       <c r="B33" s="0">
-        <v>286.822</v>
+        <v>186.9369</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7153</v>
+        <v>0.1102</v>
       </c>
       <c r="B34" s="0">
-        <v>286.9017</v>
+        <v>185.3125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7428</v>
+        <v>0.0845</v>
       </c>
       <c r="B35" s="0">
-        <v>286.6804</v>
+        <v>182.9466</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7639</v>
+        <v>0.0594</v>
       </c>
       <c r="B36" s="0">
-        <v>286.6279</v>
+        <v>180.1358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7914</v>
+        <v>0.0478</v>
       </c>
       <c r="B37" s="0">
-        <v>287.237</v>
+        <v>177.7666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8167</v>
+        <v>0.038</v>
       </c>
       <c r="B38" s="0">
-        <v>287.2982</v>
+        <v>175.3969</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8674</v>
+        <v>0.03</v>
       </c>
       <c r="B39" s="0">
-        <v>287.4706</v>
+        <v>172.4338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8928</v>
+        <v>0.0221</v>
       </c>
       <c r="B40" s="0">
-        <v>287.8454</v>
+        <v>169.0259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9182</v>
+        <v>0.0166</v>
       </c>
       <c r="B41" s="0">
-        <v>288.4709</v>
+        <v>165.9139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.992</v>
+        <v>0.0117</v>
       </c>
       <c r="B42" s="0">
-        <v>288.8335</v>
+        <v>161.9123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9427</v>
+        <v>0.0111</v>
       </c>
       <c r="B43" s="0">
-        <v>288.432</v>
+        <v>158.7991</v>
       </c>
     </row>
     <row r="44"/>
@@ -9875,7 +8831,1575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9877</v>
+      </c>
+      <c r="B3" s="0">
+        <v>288.1372</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9381</v>
+      </c>
+      <c r="B4" s="0">
+        <v>287.1113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.913</v>
+      </c>
+      <c r="B5" s="0">
+        <v>286.6726</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8885</v>
+      </c>
+      <c r="B6" s="0">
+        <v>286.2337</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8616</v>
+      </c>
+      <c r="B7" s="0">
+        <v>286.2401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8127</v>
+      </c>
+      <c r="B8" s="0">
+        <v>285.8071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7888</v>
+      </c>
+      <c r="B9" s="0">
+        <v>285.6646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7637</v>
+      </c>
+      <c r="B10" s="0">
+        <v>285.2259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7368</v>
+      </c>
+      <c r="B11" s="0">
+        <v>285.2323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7129</v>
+      </c>
+      <c r="B12" s="0">
+        <v>285.238</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6872</v>
+      </c>
+      <c r="B13" s="0">
+        <v>284.9477</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6627</v>
+      </c>
+      <c r="B14" s="0">
+        <v>284.6571</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6383</v>
+      </c>
+      <c r="B15" s="0">
+        <v>284.6629</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6113</v>
+      </c>
+      <c r="B16" s="0">
+        <v>284.0764</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5875</v>
+      </c>
+      <c r="B17" s="0">
+        <v>284.2304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5624</v>
+      </c>
+      <c r="B18" s="0">
+        <v>283.7916</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5373</v>
+      </c>
+      <c r="B19" s="0">
+        <v>283.2046</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5122</v>
+      </c>
+      <c r="B20" s="0">
+        <v>283.2107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4871</v>
+      </c>
+      <c r="B21" s="0">
+        <v>282.9202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.462</v>
+      </c>
+      <c r="B22" s="0">
+        <v>282.7779</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.437</v>
+      </c>
+      <c r="B23" s="0">
+        <v>282.784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4106</v>
+      </c>
+      <c r="B24" s="0">
+        <v>282.1973</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3862</v>
+      </c>
+      <c r="B25" s="0">
+        <v>281.7584</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3605</v>
+      </c>
+      <c r="B26" s="0">
+        <v>281.3198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3366</v>
+      </c>
+      <c r="B27" s="0">
+        <v>281.1773</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3115</v>
+      </c>
+      <c r="B28" s="0">
+        <v>280.5903</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.287</v>
+      </c>
+      <c r="B29" s="0">
+        <v>279.7066</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2601</v>
+      </c>
+      <c r="B30" s="0">
+        <v>279.7131</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2356</v>
+      </c>
+      <c r="B31" s="0">
+        <v>278.9777</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2112</v>
+      </c>
+      <c r="B32" s="0">
+        <v>278.3906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.1867</v>
+      </c>
+      <c r="B33" s="0">
+        <v>277.5069</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1616</v>
+      </c>
+      <c r="B34" s="0">
+        <v>276.4752</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1359</v>
+      </c>
+      <c r="B35" s="0">
+        <v>275.4436</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1108</v>
+      </c>
+      <c r="B36" s="0">
+        <v>273.9671</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0839</v>
+      </c>
+      <c r="B37" s="0">
+        <v>271.1567</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0582</v>
+      </c>
+      <c r="B38" s="0">
+        <v>267.9014</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0484</v>
+      </c>
+      <c r="B39" s="0">
+        <v>265.9764</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0386</v>
+      </c>
+      <c r="B40" s="0">
+        <v>263.3102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0325</v>
+      </c>
+      <c r="B41" s="0">
+        <v>260.6432</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0251</v>
+      </c>
+      <c r="B42" s="0">
+        <v>258.4211</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.008</v>
+      </c>
+      <c r="B43" s="0">
+        <v>244.1931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.0117</v>
+      </c>
+      <c r="B44" s="0">
+        <v>247.3055</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0141</v>
+      </c>
+      <c r="B45" s="0">
+        <v>251.1594</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B46" s="0">
+        <v>254.1233</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0215</v>
+      </c>
+      <c r="B47" s="0">
+        <v>256.4948</v>
+      </c>
+    </row>
+    <row r="48"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9886</v>
+      </c>
+      <c r="B3" s="0">
+        <v>217.7888</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9378</v>
+      </c>
+      <c r="B4" s="0">
+        <v>217.0157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8904</v>
+      </c>
+      <c r="B5" s="0">
+        <v>216.4611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8633</v>
+      </c>
+      <c r="B6" s="0">
+        <v>216.2374</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8333</v>
+      </c>
+      <c r="B7" s="0">
+        <v>216.122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8083</v>
+      </c>
+      <c r="B8" s="0">
+        <v>216.0077</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7644</v>
+      </c>
+      <c r="B9" s="0">
+        <v>215.9982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7386</v>
+      </c>
+      <c r="B10" s="0">
+        <v>215.5571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7142</v>
+      </c>
+      <c r="B11" s="0">
+        <v>215.4429</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.6892</v>
+      </c>
+      <c r="B12" s="0">
+        <v>215.2197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.6627</v>
+      </c>
+      <c r="B13" s="0">
+        <v>214.9962</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.639</v>
+      </c>
+      <c r="B14" s="0">
+        <v>214.6645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6133</v>
+      </c>
+      <c r="B15" s="0">
+        <v>214.6589</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.5889</v>
+      </c>
+      <c r="B16" s="0">
+        <v>214.4358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5631</v>
+      </c>
+      <c r="B17" s="0">
+        <v>214.1036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5373</v>
+      </c>
+      <c r="B18" s="0">
+        <v>213.5537</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.513</v>
+      </c>
+      <c r="B19" s="0">
+        <v>213.5484</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4872</v>
+      </c>
+      <c r="B20" s="0">
+        <v>213.1073</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B21" s="0">
+        <v>212.9926</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3869</v>
+      </c>
+      <c r="B22" s="0">
+        <v>212.1057</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3632</v>
+      </c>
+      <c r="B23" s="0">
+        <v>211.9917</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3124</v>
+      </c>
+      <c r="B24" s="0">
+        <v>211.4363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.2852</v>
+      </c>
+      <c r="B25" s="0">
+        <v>210.6683</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.2615</v>
+      </c>
+      <c r="B26" s="0">
+        <v>210.01</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.2128</v>
+      </c>
+      <c r="B27" s="0">
+        <v>209.1285</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.1863</v>
+      </c>
+      <c r="B28" s="0">
+        <v>208.034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.1361</v>
+      </c>
+      <c r="B29" s="0">
+        <v>205.9547</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.1111</v>
+      </c>
+      <c r="B30" s="0">
+        <v>205.0783</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0839</v>
+      </c>
+      <c r="B31" s="0">
+        <v>203.1128</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.063</v>
+      </c>
+      <c r="B32" s="0">
+        <v>200.7133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.0532</v>
+      </c>
+      <c r="B33" s="0">
+        <v>199.4048</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.0434</v>
+      </c>
+      <c r="B34" s="0">
+        <v>197.5519</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0351</v>
+      </c>
+      <c r="B35" s="0">
+        <v>195.5905</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0281</v>
+      </c>
+      <c r="B36" s="0">
+        <v>193.3029</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0225</v>
+      </c>
+      <c r="B37" s="0">
+        <v>190.7978</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.019</v>
+      </c>
+      <c r="B38" s="0">
+        <v>188.1842</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0162</v>
+      </c>
+      <c r="B39" s="0">
+        <v>186.0063</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0141</v>
+      </c>
+      <c r="B40" s="0">
+        <v>183.502</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0099</v>
+      </c>
+      <c r="B41" s="0">
+        <v>180.4529</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.3402</v>
+      </c>
+      <c r="B42" s="0">
+        <v>211.6601</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.4113</v>
+      </c>
+      <c r="B43" s="0">
+        <v>212.6553</v>
+      </c>
+    </row>
+    <row r="44"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0098</v>
+      </c>
+      <c r="B3" s="0">
+        <v>244.7919</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0126</v>
+      </c>
+      <c r="B4" s="0">
+        <v>248.385</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0147</v>
+      </c>
+      <c r="B5" s="0">
+        <v>251.8692</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0182</v>
+      </c>
+      <c r="B6" s="0">
+        <v>254.0472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0224</v>
+      </c>
+      <c r="B7" s="0">
+        <v>256.2254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0246</v>
+      </c>
+      <c r="B8" s="0">
+        <v>258.1854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0294</v>
+      </c>
+      <c r="B9" s="0">
+        <v>260.3638</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.035</v>
+      </c>
+      <c r="B10" s="0">
+        <v>262.3246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0399</v>
+      </c>
+      <c r="B11" s="0">
+        <v>264.2852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0469</v>
+      </c>
+      <c r="B12" s="0">
+        <v>266.1374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.056</v>
+      </c>
+      <c r="B13" s="0">
+        <v>268.099</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0825</v>
+      </c>
+      <c r="B14" s="0">
+        <v>271.6973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1104</v>
+      </c>
+      <c r="B15" s="0">
+        <v>273.5541</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1368</v>
+      </c>
+      <c r="B16" s="0">
+        <v>275.1928</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1633</v>
+      </c>
+      <c r="B17" s="0">
+        <v>276.8315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1863</v>
+      </c>
+      <c r="B18" s="0">
+        <v>277.7074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2128</v>
+      </c>
+      <c r="B19" s="0">
+        <v>278.693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2358</v>
+      </c>
+      <c r="B20" s="0">
+        <v>279.2423</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2636</v>
+      </c>
+      <c r="B21" s="0">
+        <v>280.1193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.2852</v>
+      </c>
+      <c r="B22" s="0">
+        <v>280.5595</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3124</v>
+      </c>
+      <c r="B23" s="0">
+        <v>281.0008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3361</v>
+      </c>
+      <c r="B24" s="0">
+        <v>281.5503</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3611</v>
+      </c>
+      <c r="B25" s="0">
+        <v>281.7735</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3876</v>
+      </c>
+      <c r="B26" s="0">
+        <v>282.3236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.412</v>
+      </c>
+      <c r="B27" s="0">
+        <v>283.091</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.4378</v>
+      </c>
+      <c r="B28" s="0">
+        <v>283.3143</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.4621</v>
+      </c>
+      <c r="B29" s="0">
+        <v>283.6462</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.4747</v>
+      </c>
+      <c r="B30" s="0">
+        <v>283.9755</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.4893</v>
+      </c>
+      <c r="B31" s="0">
+        <v>284.0876</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.513</v>
+      </c>
+      <c r="B32" s="0">
+        <v>283.9839</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.5367</v>
+      </c>
+      <c r="B33" s="0">
+        <v>284.3156</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.5631</v>
+      </c>
+      <c r="B34" s="0">
+        <v>284.7568</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.5875</v>
+      </c>
+      <c r="B35" s="0">
+        <v>285.3065</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.6133</v>
+      </c>
+      <c r="B36" s="0">
+        <v>285.4209</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.6404</v>
+      </c>
+      <c r="B37" s="0">
+        <v>285.4268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.6634</v>
+      </c>
+      <c r="B38" s="0">
+        <v>285.7584</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.6878</v>
+      </c>
+      <c r="B39" s="0">
+        <v>286.1992</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.7136</v>
+      </c>
+      <c r="B40" s="0">
+        <v>286.3137</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.7393</v>
+      </c>
+      <c r="B41" s="0">
+        <v>286.6459</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.7644</v>
+      </c>
+      <c r="B42" s="0">
+        <v>286.8691</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.7888</v>
+      </c>
+      <c r="B43" s="0">
+        <v>287.0921</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.8152</v>
+      </c>
+      <c r="B44" s="0">
+        <v>287.2067</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.8626</v>
+      </c>
+      <c r="B45" s="0">
+        <v>287.4348</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.8897</v>
+      </c>
+      <c r="B46" s="0">
+        <v>287.6584</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9148</v>
+      </c>
+      <c r="B47" s="0">
+        <v>287.9905</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.9399</v>
+      </c>
+      <c r="B48" s="0">
+        <v>288.4314</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.9866</v>
+      </c>
+      <c r="B49" s="0">
+        <v>288.877</v>
+      </c>
+    </row>
+    <row r="50"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9867</v>
+      </c>
+      <c r="B3" s="0">
+        <v>260.7333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9414</v>
+      </c>
+      <c r="B4" s="0">
+        <v>259.7349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9161</v>
+      </c>
+      <c r="B5" s="0">
+        <v>259.1528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8915</v>
+      </c>
+      <c r="B6" s="0">
+        <v>258.7349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8662</v>
+      </c>
+      <c r="B7" s="0">
+        <v>258.4807</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8389</v>
+      </c>
+      <c r="B8" s="0">
+        <v>257.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.8149</v>
+      </c>
+      <c r="B9" s="0">
+        <v>257.8082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.7909</v>
+      </c>
+      <c r="B10" s="0">
+        <v>257.3085</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.765</v>
+      </c>
+      <c r="B11" s="0">
+        <v>257.0541</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.739</v>
+      </c>
+      <c r="B12" s="0">
+        <v>256.7997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.7137</v>
+      </c>
+      <c r="B13" s="0">
+        <v>256.3815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.6897</v>
+      </c>
+      <c r="B14" s="0">
+        <v>256.0458</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.6644</v>
+      </c>
+      <c r="B15" s="0">
+        <v>255.6277</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.6398</v>
+      </c>
+      <c r="B16" s="0">
+        <v>255.1278</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.6138</v>
+      </c>
+      <c r="B17" s="0">
+        <v>254.6275</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5885</v>
+      </c>
+      <c r="B18" s="0">
+        <v>254.4553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5632</v>
+      </c>
+      <c r="B19" s="0">
+        <v>254.0371</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.5386</v>
+      </c>
+      <c r="B20" s="0">
+        <v>253.4553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.514</v>
+      </c>
+      <c r="B21" s="0">
+        <v>252.9554</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4867</v>
+      </c>
+      <c r="B22" s="0">
+        <v>252.4547</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4627</v>
+      </c>
+      <c r="B23" s="0">
+        <v>251.955</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4374</v>
+      </c>
+      <c r="B24" s="0">
+        <v>251.3729</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4128</v>
+      </c>
+      <c r="B25" s="0">
+        <v>251.037</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3881</v>
+      </c>
+      <c r="B26" s="0">
+        <v>250.6191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3622</v>
+      </c>
+      <c r="B27" s="0">
+        <v>249.9548</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3369</v>
+      </c>
+      <c r="B28" s="0">
+        <v>249.6187</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.3123</v>
+      </c>
+      <c r="B29" s="0">
+        <v>248.7909</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.2883</v>
+      </c>
+      <c r="B30" s="0">
+        <v>248.1273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.2643</v>
+      </c>
+      <c r="B31" s="0">
+        <v>247.4637</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.2364</v>
+      </c>
+      <c r="B32" s="0">
+        <v>246.6349</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.2111</v>
+      </c>
+      <c r="B33" s="0">
+        <v>245.8069</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.1871</v>
+      </c>
+      <c r="B34" s="0">
+        <v>244.8154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.1618</v>
+      </c>
+      <c r="B35" s="0">
+        <v>243.9875</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.1378</v>
+      </c>
+      <c r="B36" s="0">
+        <v>242.5862</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.1125</v>
+      </c>
+      <c r="B37" s="0">
+        <v>240.6107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0832</v>
+      </c>
+      <c r="B38" s="0">
+        <v>238.142</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0599</v>
+      </c>
+      <c r="B39" s="0">
+        <v>234.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0519</v>
+      </c>
+      <c r="B40" s="0">
+        <v>232.64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.0453</v>
+      </c>
+      <c r="B41" s="0">
+        <v>230.8345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0386</v>
+      </c>
+      <c r="B42" s="0">
+        <v>228.9471</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.034</v>
+      </c>
+      <c r="B43" s="0">
+        <v>226.9783</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.03</v>
+      </c>
+      <c r="B44" s="0">
+        <v>225.3377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.0273</v>
+      </c>
+      <c r="B45" s="0">
+        <v>223.6975</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.0233</v>
+      </c>
+      <c r="B46" s="0">
+        <v>221.8929</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.0226</v>
+      </c>
+      <c r="B47" s="0">
+        <v>219.7615</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.0173</v>
+      </c>
+      <c r="B48" s="0">
+        <v>217.6286</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0153</v>
+      </c>
+      <c r="B49" s="0">
+        <v>215.005</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.012</v>
+      </c>
+      <c r="B50" s="0">
+        <v>211.0695</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0093</v>
+      </c>
+      <c r="B51" s="0">
+        <v>207.708</v>
+      </c>
+    </row>
+    <row r="52"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -9885,7 +10409,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -9898,386 +10422,386 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0096</v>
+        <v>0.9887</v>
       </c>
       <c r="B3" s="0">
-        <v>208.0971</v>
+        <v>289.3406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0128</v>
+        <v>0.9407</v>
       </c>
       <c r="B4" s="0">
-        <v>211.4724</v>
+        <v>288.0953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.017</v>
+        <v>0.9134</v>
       </c>
       <c r="B5" s="0">
-        <v>215.6249</v>
+        <v>287.8405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0216</v>
+        <v>0.8881</v>
       </c>
       <c r="B6" s="0">
-        <v>219.2657</v>
+        <v>287.5863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0258</v>
+        <v>0.8615</v>
       </c>
       <c r="B7" s="0">
-        <v>222.4347</v>
+        <v>287.4136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0326</v>
+        <v>0.8142</v>
       </c>
       <c r="B8" s="0">
-        <v>225.5222</v>
+        <v>287.1522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0404</v>
+        <v>0.7876</v>
       </c>
       <c r="B9" s="0">
-        <v>228.4625</v>
+        <v>286.9795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.048</v>
+        <v>0.763</v>
       </c>
       <c r="B10" s="0">
-        <v>231.3742</v>
+        <v>286.8075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0611</v>
+        <v>0.7383</v>
       </c>
       <c r="B11" s="0">
-        <v>233.7507</v>
+        <v>286.5536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0845</v>
+        <v>0.7137</v>
       </c>
       <c r="B12" s="0">
-        <v>237.9156</v>
+        <v>286.3815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1077</v>
+        <v>0.6884</v>
       </c>
       <c r="B13" s="0">
-        <v>240.3317</v>
+        <v>286.1273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1337</v>
+        <v>0.6618</v>
       </c>
       <c r="B14" s="0">
-        <v>242.0894</v>
+        <v>285.7907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.156</v>
+        <v>0.6372</v>
       </c>
       <c r="B15" s="0">
-        <v>243.816</v>
+        <v>285.6187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.181</v>
+        <v>0.6125</v>
       </c>
       <c r="B16" s="0">
-        <v>244.734</v>
+        <v>285.2008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2045</v>
+        <v>0.5872</v>
       </c>
       <c r="B17" s="0">
-        <v>245.71</v>
+        <v>285.0286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2294</v>
+        <v>0.5626</v>
       </c>
       <c r="B18" s="0">
-        <v>246.5385</v>
+        <v>284.7746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2543</v>
+        <v>0.5366</v>
       </c>
       <c r="B19" s="0">
-        <v>247.459</v>
+        <v>284.4382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2776</v>
+        <v>0.5113</v>
       </c>
       <c r="B20" s="0">
-        <v>248.0404</v>
+        <v>284.184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3018</v>
+        <v>0.4867</v>
       </c>
       <c r="B21" s="0">
-        <v>248.8989</v>
+        <v>283.7661</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3251</v>
+        <v>0.464</v>
       </c>
       <c r="B22" s="0">
-        <v>249.5982</v>
+        <v>283.6767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3503</v>
+        <v>0.4374</v>
       </c>
       <c r="B23" s="0">
-        <v>249.9155</v>
+        <v>283.0942</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3738</v>
+        <v>0.4101</v>
       </c>
       <c r="B24" s="0">
-        <v>250.3455</v>
+        <v>282.8394</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3979</v>
+        <v>0.3862</v>
       </c>
       <c r="B25" s="0">
-        <v>250.6847</v>
+        <v>282.3397</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4221</v>
+        <v>0.3602</v>
       </c>
       <c r="B26" s="0">
-        <v>251.1824</v>
+        <v>282.0033</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4458</v>
+        <v>0.3356</v>
       </c>
       <c r="B27" s="0">
-        <v>251.6948</v>
+        <v>281.6674</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4692</v>
+        <v>0.3116</v>
       </c>
       <c r="B28" s="0">
-        <v>252.1922</v>
+        <v>281.1677</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.495</v>
+        <v>0.2863</v>
       </c>
       <c r="B29" s="0">
-        <v>252.8099</v>
+        <v>280.5037</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5179</v>
+        <v>0.2597</v>
       </c>
       <c r="B30" s="0">
-        <v>252.8006</v>
+        <v>280.0851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.544</v>
+        <v>0.2357</v>
       </c>
       <c r="B31" s="0">
-        <v>253.4569</v>
+        <v>279.4215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5682</v>
+        <v>0.2104</v>
       </c>
       <c r="B32" s="0">
-        <v>253.8226</v>
+        <v>278.8395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5925</v>
+        <v>0.1844</v>
       </c>
       <c r="B33" s="0">
-        <v>254.3857</v>
+        <v>277.8474</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6167</v>
+        <v>0.1605</v>
       </c>
       <c r="B34" s="0">
-        <v>254.6527</v>
+        <v>276.8559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.641</v>
+        <v>0.1365</v>
       </c>
       <c r="B35" s="0">
-        <v>255.0923</v>
+        <v>275.6185</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6649</v>
+        <v>0.1112</v>
       </c>
       <c r="B36" s="0">
-        <v>255.4791</v>
+        <v>274.1348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6895</v>
+        <v>0.0812</v>
       </c>
       <c r="B37" s="0">
-        <v>256.0289</v>
+        <v>271.584</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7137</v>
+        <v>0.0586</v>
       </c>
       <c r="B38" s="0">
-        <v>256.1664</v>
+        <v>268.6258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.738</v>
+        <v>0.0513</v>
       </c>
       <c r="B39" s="0">
-        <v>256.8582</v>
+        <v>267.066</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7622</v>
+        <v>0.0446</v>
       </c>
       <c r="B40" s="0">
-        <v>257.1095</v>
+        <v>265.5064</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7865</v>
+        <v>0.0386</v>
       </c>
       <c r="B41" s="0">
-        <v>257.1877</v>
+        <v>264.111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8107</v>
+        <v>0.0326</v>
       </c>
       <c r="B42" s="0">
-        <v>257.7878</v>
+        <v>262.4697</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.835</v>
+        <v>0.0286</v>
       </c>
       <c r="B43" s="0">
-        <v>258.0322</v>
+        <v>260.993</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8592</v>
+        <v>0.0266</v>
       </c>
       <c r="B44" s="0">
-        <v>258.293</v>
+        <v>259.6809</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.8834</v>
+        <v>0.0226</v>
       </c>
       <c r="B45" s="0">
-        <v>258.5814</v>
+        <v>258.2861</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9086</v>
+        <v>0.0213</v>
       </c>
       <c r="B46" s="0">
-        <v>259.0164</v>
+        <v>256.5644</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.931</v>
+        <v>0.0173</v>
       </c>
       <c r="B47" s="0">
-        <v>259.4535</v>
+        <v>254.4319</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9981</v>
+        <v>0.014</v>
       </c>
       <c r="B48" s="0">
-        <v>260.9997</v>
+        <v>251.8079</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.9534</v>
+        <v>0.012</v>
       </c>
       <c r="B49" s="0">
-        <v>259.9847</v>
+        <v>248.4466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.976</v>
+        <v>0.0087</v>
       </c>
       <c r="B50" s="0">
-        <v>260.1561</v>
+        <v>245.0028</v>
       </c>
     </row>
     <row r="51"/>
@@ -10285,424 +10809,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0422</v>
-      </c>
-      <c r="B3" s="0">
-        <v>263.9535</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0573</v>
-      </c>
-      <c r="B4" s="0">
-        <v>267.5014</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0781</v>
-      </c>
-      <c r="B5" s="0">
-        <v>270.8438</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1029</v>
-      </c>
-      <c r="B6" s="0">
-        <v>272.6314</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1288</v>
-      </c>
-      <c r="B7" s="0">
-        <v>274.191</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1528</v>
-      </c>
-      <c r="B8" s="0">
-        <v>275.7534</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1759</v>
-      </c>
-      <c r="B9" s="0">
-        <v>276.7983</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2009</v>
-      </c>
-      <c r="B10" s="0">
-        <v>277.7169</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2259</v>
-      </c>
-      <c r="B11" s="0">
-        <v>278.5476</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2495</v>
-      </c>
-      <c r="B12" s="0">
-        <v>279.3762</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2729</v>
-      </c>
-      <c r="B13" s="0">
-        <v>279.8162</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2971</v>
-      </c>
-      <c r="B14" s="0">
-        <v>280.4347</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3214</v>
-      </c>
-      <c r="B15" s="0">
-        <v>280.9413</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3456</v>
-      </c>
-      <c r="B16" s="0">
-        <v>281.6055</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3689</v>
-      </c>
-      <c r="B17" s="0">
-        <v>281.805</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3934</v>
-      </c>
-      <c r="B18" s="0">
-        <v>282.2419</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4183</v>
-      </c>
-      <c r="B19" s="0">
-        <v>282.8013</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4426</v>
-      </c>
-      <c r="B20" s="0">
-        <v>283.0493</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5396</v>
-      </c>
-      <c r="B21" s="0">
-        <v>284.5361</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5638</v>
-      </c>
-      <c r="B22" s="0">
-        <v>284.7823</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5881</v>
-      </c>
-      <c r="B23" s="0">
-        <v>285.0469</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6123</v>
-      </c>
-      <c r="B24" s="0">
-        <v>285.276</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.6366</v>
-      </c>
-      <c r="B25" s="0">
-        <v>285.6088</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6608</v>
-      </c>
-      <c r="B26" s="0">
-        <v>285.7434</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6851</v>
-      </c>
-      <c r="B27" s="0">
-        <v>286.0416</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7093</v>
-      </c>
-      <c r="B28" s="0">
-        <v>286.1137</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.7344</v>
-      </c>
-      <c r="B29" s="0">
-        <v>286.4411</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7578</v>
-      </c>
-      <c r="B30" s="0">
-        <v>286.8069</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7821</v>
-      </c>
-      <c r="B31" s="0">
-        <v>286.9123</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.8063</v>
-      </c>
-      <c r="B32" s="0">
-        <v>287.2524</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8305</v>
-      </c>
-      <c r="B33" s="0">
-        <v>287.6518</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.8548</v>
-      </c>
-      <c r="B34" s="0">
-        <v>287.8171</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.879</v>
-      </c>
-      <c r="B35" s="0">
-        <v>287.8513</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9033</v>
-      </c>
-      <c r="B36" s="0">
-        <v>287.7925</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9285</v>
-      </c>
-      <c r="B37" s="0">
-        <v>288.0312</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.976</v>
-      </c>
-      <c r="B38" s="0">
-        <v>289.5145</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9937</v>
-      </c>
-      <c r="B39" s="0">
-        <v>289.1946</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.51</v>
-      </c>
-      <c r="B40" s="0">
-        <v>284.2656</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4874</v>
-      </c>
-      <c r="B41" s="0">
-        <v>283.9303</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.4634</v>
-      </c>
-      <c r="B42" s="0">
-        <v>283.4306</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9467</v>
-      </c>
-      <c r="B43" s="0">
-        <v>288.5071</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.012</v>
-      </c>
-      <c r="B44" s="0">
-        <v>248.6925</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0093</v>
-      </c>
-      <c r="B45" s="0">
-        <v>245.4129</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0133</v>
-      </c>
-      <c r="B46" s="0">
-        <v>251.3158</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.016</v>
-      </c>
-      <c r="B47" s="0">
-        <v>254.1036</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B48" s="0">
-        <v>256.2361</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.024</v>
-      </c>
-      <c r="B49" s="0">
-        <v>259.3521</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0333</v>
-      </c>
-      <c r="B50" s="0">
-        <v>261.3224</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0479</v>
-      </c>
-      <c r="B51" s="0">
-        <v>265.9174</v>
-      </c>
-    </row>
-    <row r="52"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 137 Spherical potassium intercalated activated/Data137_all_graphs_excel.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 PR1_600  0-1-200-320" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 PRO  0-1-200-320 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_2 PR2_600_f2_2  0-1-14" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_2 PRO_f2_2  0-1-140-30" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_3 PR3_600_f2_3  0-1-17" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_3 PRO_f2_3  0-1-170-31" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_4 PR4_600_f2_4  0-1-20" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 2_4 PRO_f2_4  0-1-200-30" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_1 PR1_600  0&amp;1&amp;200&amp;320" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 PRO  0&amp;1&amp;200&amp;320 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_2 PR2_600_f2_2  0&amp;1&amp;14" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_2 PRO_f2_2  0&amp;1&amp;140&amp;30" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_3 PR3_600_f2_3  0&amp;1&amp;17" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_3 PRO_f2_3  0&amp;1&amp;170&amp;31" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_4 PR4_600_f2_4  0&amp;1&amp;20" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_4 PRO_f2_4  0&amp;1&amp;200&amp;30" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -184,12 +184,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 PR1_600  0-1-200-320'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 PR1_600  0&amp;1&amp;200&amp;320'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 PR1_600  0-1-200-320'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 PR1_600  0&amp;1&amp;200&amp;320'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -498,12 +498,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 PRO  0-1-200-320 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 PRO  0&amp;1&amp;200&amp;320 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 PRO  0-1-200-320 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 PRO  0&amp;1&amp;200&amp;320 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -812,12 +812,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 PR2_600_f2_2  0-1-14'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 PR2_600_f2_2  0&amp;1&amp;14'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 PR2_600_f2_2  0-1-14'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 PR2_600_f2_2  0&amp;1&amp;14'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1126,12 +1126,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 PRO_f2_2  0-1-140-30'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 PRO_f2_2  0&amp;1&amp;140&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 PRO_f2_2  0-1-140-30'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 PRO_f2_2  0&amp;1&amp;140&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1440,12 +1440,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 PR3_600_f2_3  0-1-17'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 PR3_600_f2_3  0&amp;1&amp;17'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 PR3_600_f2_3  0-1-17'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 PR3_600_f2_3  0&amp;1&amp;17'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1754,12 +1754,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 PRO_f2_3  0-1-170-31'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 PRO_f2_3  0&amp;1&amp;170&amp;31'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 PRO_f2_3  0-1-170-31'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 PRO_f2_3  0&amp;1&amp;170&amp;31'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2068,12 +2068,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_4 PR4_600_f2_4  0-1-20'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_4 PR4_600_f2_4  0&amp;1&amp;20'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_4 PR4_600_f2_4  0-1-20'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_4 PR4_600_f2_4  0&amp;1&amp;20'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2382,12 +2382,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_4 PRO_f2_4  0-1-200-30'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_4 PRO_f2_4  0&amp;1&amp;200&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_4 PRO_f2_4  0-1-200-30'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_4 PRO_f2_4  0&amp;1&amp;200&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
